--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.73180333333334</v>
+        <v>12.265976</v>
       </c>
       <c r="H2">
-        <v>68.19541000000001</v>
+        <v>36.797928</v>
       </c>
       <c r="I2">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088759</v>
       </c>
       <c r="J2">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088758</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>42.1577583942389</v>
+        <v>16.81513620363467</v>
       </c>
       <c r="R2">
-        <v>379.4198255481501</v>
+        <v>151.336225832712</v>
       </c>
       <c r="S2">
-        <v>0.0001203936041835694</v>
+        <v>4.41321030261389E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001203936041835694</v>
+        <v>4.413210302613888E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.73180333333334</v>
+        <v>12.265976</v>
       </c>
       <c r="H3">
-        <v>68.19541000000001</v>
+        <v>36.797928</v>
       </c>
       <c r="I3">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088759</v>
       </c>
       <c r="J3">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>2112.096508512881</v>
+        <v>1139.677512743283</v>
       </c>
       <c r="R3">
-        <v>19008.86857661593</v>
+        <v>10257.09761468954</v>
       </c>
       <c r="S3">
-        <v>0.006031699044941344</v>
+        <v>0.002991136366655686</v>
       </c>
       <c r="T3">
-        <v>0.006031699044941345</v>
+        <v>0.002991136366655685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.73180333333334</v>
+        <v>12.265976</v>
       </c>
       <c r="H4">
-        <v>68.19541000000001</v>
+        <v>36.797928</v>
       </c>
       <c r="I4">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088759</v>
       </c>
       <c r="J4">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088758</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>394.9535275833056</v>
+        <v>364.526211500384</v>
       </c>
       <c r="R4">
-        <v>3554.58174824975</v>
+        <v>3280.735903503456</v>
       </c>
       <c r="S4">
-        <v>0.0011279033914969</v>
+        <v>0.0009567159092167034</v>
       </c>
       <c r="T4">
-        <v>0.0011279033914969</v>
+        <v>0.0009567159092167029</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.73180333333334</v>
+        <v>12.265976</v>
       </c>
       <c r="H5">
-        <v>68.19541000000001</v>
+        <v>36.797928</v>
       </c>
       <c r="I5">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088759</v>
       </c>
       <c r="J5">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088758</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>3.685643665253334</v>
+        <v>3.384685683416</v>
       </c>
       <c r="R5">
-        <v>33.17079298728001</v>
+        <v>30.462171150744</v>
       </c>
       <c r="S5">
-        <v>1.052541552249201E-05</v>
+        <v>8.88326419023145E-06</v>
       </c>
       <c r="T5">
-        <v>1.052541552249201E-05</v>
+        <v>8.883264190231447E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9128.088134</v>
       </c>
       <c r="I6">
-        <v>0.9758504625824999</v>
+        <v>0.9924545876219728</v>
       </c>
       <c r="J6">
-        <v>0.9758504625824997</v>
+        <v>0.9924545876219727</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>5642.897874717534</v>
+        <v>4171.159997160476</v>
       </c>
       <c r="R6">
-        <v>50786.08087245781</v>
+        <v>37540.43997444429</v>
       </c>
       <c r="S6">
-        <v>0.01611491784795388</v>
+        <v>0.01094740241791233</v>
       </c>
       <c r="T6">
-        <v>0.01611491784795388</v>
+        <v>0.01094740241791233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9128.088134</v>
       </c>
       <c r="I7">
-        <v>0.9758504625824999</v>
+        <v>0.9924545876219728</v>
       </c>
       <c r="J7">
-        <v>0.9758504625824997</v>
+        <v>0.9924545876219727</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
         <v>282708.2215242824</v>
@@ -883,10 +883,10 @@
         <v>2544373.993718541</v>
       </c>
       <c r="S7">
-        <v>0.8073546369174731</v>
+        <v>0.7419808086924251</v>
       </c>
       <c r="T7">
-        <v>0.8073546369174731</v>
+        <v>0.741980808692425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9128.088134</v>
       </c>
       <c r="I8">
-        <v>0.9758504625824999</v>
+        <v>0.9924545876219728</v>
       </c>
       <c r="J8">
-        <v>0.9758504625824997</v>
+        <v>0.9924545876219727</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>52865.29707226063</v>
+        <v>90424.31372028962</v>
       </c>
       <c r="R8">
-        <v>475787.6736503456</v>
+        <v>813818.8234826066</v>
       </c>
       <c r="S8">
-        <v>0.1509720604982242</v>
+        <v>0.2373227954174488</v>
       </c>
       <c r="T8">
-        <v>0.1509720604982242</v>
+        <v>0.2373227954174487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>9128.088134</v>
       </c>
       <c r="I9">
-        <v>0.9758504625824999</v>
+        <v>0.9924545876219728</v>
       </c>
       <c r="J9">
-        <v>0.9758504625824997</v>
+        <v>0.9924545876219727</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>493.3305658980748</v>
+        <v>839.6045892613646</v>
       </c>
       <c r="R9">
-        <v>4439.975093082672</v>
+        <v>7556.441303352281</v>
       </c>
       <c r="S9">
-        <v>0.001408847318848566</v>
+        <v>0.002203581094186575</v>
       </c>
       <c r="T9">
-        <v>0.001408847318848566</v>
+        <v>0.002203581094186574</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.63053333333333</v>
+        <v>8.377189333333332</v>
       </c>
       <c r="H10">
-        <v>151.8916</v>
+        <v>25.131568</v>
       </c>
       <c r="I10">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="J10">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N10">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q10">
-        <v>93.89795258822221</v>
+        <v>11.48409059691911</v>
       </c>
       <c r="R10">
-        <v>845.0815732939999</v>
+        <v>103.356815372272</v>
       </c>
       <c r="S10">
-        <v>0.0002681526098194738</v>
+        <v>3.014052715643161E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002681526098194739</v>
+        <v>3.014052715643161E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.63053333333333</v>
+        <v>8.377189333333332</v>
       </c>
       <c r="H11">
-        <v>151.8916</v>
+        <v>25.131568</v>
       </c>
       <c r="I11">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="J11">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P11">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q11">
-        <v>4704.271416982977</v>
+        <v>778.3558604054737</v>
       </c>
       <c r="R11">
-        <v>42338.44275284679</v>
+        <v>7005.202743649264</v>
       </c>
       <c r="S11">
-        <v>0.01343440003740153</v>
+        <v>0.002042830971240562</v>
       </c>
       <c r="T11">
-        <v>0.01343440003740153</v>
+        <v>0.002042830971240562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.63053333333333</v>
+        <v>8.377189333333332</v>
       </c>
       <c r="H12">
-        <v>151.8916</v>
+        <v>25.131568</v>
       </c>
       <c r="I12">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="J12">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N12">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q12">
-        <v>879.6797794788888</v>
+        <v>248.9573671676373</v>
       </c>
       <c r="R12">
-        <v>7917.118015309999</v>
+        <v>2240.616304508736</v>
       </c>
       <c r="S12">
-        <v>0.002512178617005022</v>
+        <v>0.0006534001297345166</v>
       </c>
       <c r="T12">
-        <v>0.002512178617005022</v>
+        <v>0.0006534001297345164</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.63053333333333</v>
+        <v>8.377189333333332</v>
       </c>
       <c r="H13">
-        <v>151.8916</v>
+        <v>25.131568</v>
       </c>
       <c r="I13">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="J13">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N13">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O13">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P13">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q13">
-        <v>8.209032152533334</v>
+        <v>2.311610001829333</v>
       </c>
       <c r="R13">
-        <v>73.8812893728</v>
+        <v>20.804490016464</v>
       </c>
       <c r="S13">
-        <v>2.344325232997568E-05</v>
+        <v>6.066927411205504E-06</v>
       </c>
       <c r="T13">
-        <v>2.344325232997568E-05</v>
+        <v>6.066927411205504E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.93578</v>
+        <v>2.489778666666667</v>
       </c>
       <c r="H14">
-        <v>5.807339999999999</v>
+        <v>7.469336</v>
       </c>
       <c r="I14">
-        <v>0.0006208414447999516</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="J14">
-        <v>0.0006208414447999514</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N14">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q14">
-        <v>3.5900427409</v>
+        <v>3.413178649371555</v>
       </c>
       <c r="R14">
-        <v>32.3103846681</v>
+        <v>30.718607844344</v>
       </c>
       <c r="S14">
-        <v>1.025239958700167E-05</v>
+        <v>8.958045297790903E-06</v>
       </c>
       <c r="T14">
-        <v>1.025239958700167E-05</v>
+        <v>8.958045297790902E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.93578</v>
+        <v>2.489778666666667</v>
       </c>
       <c r="H15">
-        <v>5.807339999999999</v>
+        <v>7.469336</v>
       </c>
       <c r="I15">
-        <v>0.0006208414447999516</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="J15">
-        <v>0.0006208414447999514</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P15">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q15">
-        <v>179.86052928998</v>
+        <v>231.3346086856809</v>
       </c>
       <c r="R15">
-        <v>1618.74476360982</v>
+        <v>2082.011478171128</v>
       </c>
       <c r="S15">
-        <v>0.000513643471483633</v>
+        <v>0.0006071483846691181</v>
       </c>
       <c r="T15">
-        <v>0.000513643471483633</v>
+        <v>0.000607148384669118</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.93578</v>
+        <v>2.489778666666667</v>
       </c>
       <c r="H16">
-        <v>5.807339999999999</v>
+        <v>7.469336</v>
       </c>
       <c r="I16">
-        <v>0.0006208414447999516</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="J16">
-        <v>0.0006208414447999514</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N16">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q16">
-        <v>33.6331934785</v>
+        <v>73.99244746887466</v>
       </c>
       <c r="R16">
-        <v>302.6987413064999</v>
+        <v>665.932027219872</v>
       </c>
       <c r="S16">
-        <v>9.604925729716419E-05</v>
+        <v>0.0001941966021153434</v>
       </c>
       <c r="T16">
-        <v>9.604925729716418E-05</v>
+        <v>0.0001941966021153433</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.93578</v>
+        <v>2.489778666666667</v>
       </c>
       <c r="H17">
-        <v>5.807339999999999</v>
+        <v>7.469336</v>
       </c>
       <c r="I17">
-        <v>0.0006208414447999516</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="J17">
-        <v>0.0006208414447999514</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N17">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O17">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P17">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q17">
-        <v>0.31385962608</v>
+        <v>0.6870320150586666</v>
       </c>
       <c r="R17">
-        <v>2.82473663472</v>
+        <v>6.183288135528</v>
       </c>
       <c r="S17">
-        <v>8.96316432152673E-07</v>
+        <v>1.803147313446741E-06</v>
       </c>
       <c r="T17">
-        <v>8.96316432152673E-07</v>
+        <v>1.803147313446741E-06</v>
       </c>
     </row>
   </sheetData>
